--- a/medicine/Enfance/Langelot_à_la_Maison-Blanche/Langelot_à_la_Maison-Blanche.xlsx
+++ b/medicine/Enfance/Langelot_à_la_Maison-Blanche/Langelot_à_la_Maison-Blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Langelot_%C3%A0_la_Maison-Blanche</t>
+          <t>Langelot_à_la_Maison-Blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot à la Maison-Blanche est le vingt-cinquième roman de la série Langelot, écrite par le Lieutenant X. Il est paru pour la première fois en 1976, dans la Bibliothèque verte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Langelot_%C3%A0_la_Maison-Blanche</t>
+          <t>Langelot_à_la_Maison-Blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot (alias Jean-Claude Blisson) : orphelin, agent du Service National d'Information Fonctionnelle, blond, 1,68 m, mince, « traits menus mais durs ».
 « Cora » (Marie-Jeanne Faure) : chef de la mission du Groupement Révolutionnaire Pour La Paix Dans Le Monde (G.R.P.L.P.D.L.M), fille de milliardaire, pacifiste, initialement membre du Parti Révolutionnaire Non Violent.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Langelot_%C3%A0_la_Maison-Blanche</t>
+          <t>Langelot_à_la_Maison-Blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une mystérieuse organisation terroriste, le Groupement Révolutionnaire Pour La Paix Dans Le Monde (G.R.P.L.P.D.L.M), entend organiser un simulacre d'assassinat du président des États-Unis par un ressortissant Français, afin de retourner l'opinion américaine et de favoriser une politique isolationniste, détachée de l'Europe et de la France. Mais cette organisation est infiltrée par une autre organisation terroriste, l'Armée Aborigène Apatride (AAA), laquelle souhaite l'assassinat effectif du président des États-Unis.
 Le G.R.P.L.P.D.L.M. recrute un Français, jeune, naïf, sans grand projet, champion de tir au fusil : Jean-Claude Blisson.
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Langelot_%C3%A0_la_Maison-Blanche</t>
+          <t>Langelot_à_la_Maison-Blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1976 - Hachette, Bibliothèque verte (français, version originale), illustré par Maurice Paulin.</t>
         </is>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Langelot_%C3%A0_la_Maison-Blanche</t>
+          <t>Langelot_à_la_Maison-Blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,17 +639,19 @@
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La « doctrine Monroe », du nom du président américain James Monroe (1758-1831) prohibe toute intervention des États-Unis dans les affaires mondiales (page 28 du roman, édition Hachette).
-Langelot se présente au premier rendez-vous avec Cora (page 21 du roman, édition Hachette) avec le livre « L'agent triple », terme faisant référence à un espion travaillant pour trois organisations différentes. Vladimir Volkoff est l'auteur du livre « L'agent triple » paru en 1962. Ce roman est son premier écrit en territoire américain, après son départ pour les États-Unis[1]. Son autre roman célèbre « Le Retournement » (1979) met en scène un agent triple.
+Langelot se présente au premier rendez-vous avec Cora (page 21 du roman, édition Hachette) avec le livre « L'agent triple », terme faisant référence à un espion travaillant pour trois organisations différentes. Vladimir Volkoff est l'auteur du livre « L'agent triple » paru en 1962. Ce roman est son premier écrit en territoire américain, après son départ pour les États-Unis. Son autre roman célèbre « Le Retournement » (1979) met en scène un agent triple.
 Dans Langelot et les Exterminateurs l'antenne nord-américaine du SNIF est basée à Miami ; dans ce roman, elle est à Washington. Cette antenne n'apparaît pas lorsque Langelot opère au Canada, dans Langelot et le Gratte-Ciel.
 Le roman, publié en 1976, a peut-être été inspiré par divers attentats ou tentatives d'attentats à l'encontre de présidents des États-Unis :
 l'assassinat de John F. Kennedy le 22 novembre 1963 à Dallas ;
 les tentatives d'assassinat contre Gerald Ford du 5 septembre 1975 par Lynette Fromme et du 22 septembre 1975 par Sara Jane Moore ;
 Le roman évoque l'astronaute Frank Hordon, parti skier avec le président des États-Unis que Langelot doit exécuter, qui avait eu la vie sauve grâce à Langelot dans Langelot et les Cosmonautes. Dans ce précédent roman, Frank Hordon partait en mission pour la planète Mars. Dans celui-ci, les États-Unis célèbrent son retour sur Terre, sans que sa mission soit clairement précisée.
 Un Thomas Culpeper (ou Culpepper, 1514-1541), courtisan qui a vécu en Angleterre, a trahi le roi Henry VIII. Jugé pour cette trahison, il a été atrocement exécuté.
-Culpepper est également une ville proche de Washington[2].</t>
+Culpepper est également une ville proche de Washington.</t>
         </is>
       </c>
     </row>
